--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProjectEventSystem_v2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD77D818-4480-4E09-A629-C6B3ABF0DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0798D-E857-488A-BB5D-5455A9C73539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" firstSheet="1" activeTab="11" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
     <sheet name="getVerifyCode" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
+    <sheet name="CreateUaer" sheetId="6" r:id="rId5"/>
+    <sheet name="EditUser" sheetId="7" r:id="rId6"/>
+    <sheet name="QueryUser" sheetId="8" r:id="rId7"/>
+    <sheet name="CreateDepartment" sheetId="9" r:id="rId8"/>
+    <sheet name="EditDepartment" sheetId="10" r:id="rId9"/>
+    <sheet name="QueryDepartment" sheetId="11" r:id="rId10"/>
+    <sheet name="CreateCompany" sheetId="12" r:id="rId11"/>
+    <sheet name="EditCompany" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">接口设计!$A$3:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">接口设计!$A$3:$L$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="269">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +770,484 @@
   </si>
   <si>
     <t>Logout接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJMEMBER</t>
+  </si>
+  <si>
+    <t>TBUSPRJMEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJMEMBER,TBUSPROJECT,TMSTUSER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSEVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPROJECT,TBUSEVENT,TBUSPRJEVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateUaer接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code":2000,
+    "msg":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditUser接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务分类代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编码，用户自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过加密的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "empcode": "0001",
+  "empname": "John Doe",
+  "passwd": "encrypted_password",
+  "sex": 1,
+  "mobile": "1234567890"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/CreateUaer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/EditUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "empcode": new_code,
+  "empname": "Jane Doe",
+  "sex": 0,
+  "mobile": "0987654321",
+  "admin": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新管理员状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryUser接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/QueryUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按性别查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按姓名查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按用户编码查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按手机号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按管理员状态查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "empcode": "0001",
+  "empname": "John Doe",
+  "passwd": "encrypted_password",
+  "sex": 1,
+  "mobile": "1234567890",
+  "status":0,
+  "page": 1,
+  "pageSize": 10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "success",
+  "data": [
+    {
+      "empid": 1,
+      "empcode": "0001",
+      "empname": "John Doe",
+      "sex": 1,
+      "mobile": "1234567890",
+      "weticket": "wechat_ticket",
+      "status": 0,
+      "admin": 1
+    },
+    {
+      "empid": 2,
+      "empcode": "0002",
+      "empname": "Jane Doe",
+      "sex": 0,
+      "mobile": "0987654321",
+      "weticket": "new_wechat_ticket",
+      "status": 0,
+      "admin": 0
+    }
+  ],
+  "pagination": {
+    "page": 1,
+    "pageSize": 10,
+    "total": 100
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDepartment接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/CreateDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "deptcode": "D001",
+  "deptname": "HR Department",
+  "deptlocation": "New York"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptlocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "department created successfully"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口用途说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过0~n个参数查询用户信息，反馈0~n个用户的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/EditDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "deptcode": new_deptcode,
+  "deptname": "Finance Department",
+  "deptlocation": "San Francisco"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditDepartment接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细反馈数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "department updated successfully"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryDepartment接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过0~n个参数，查询部门信息，并返回0~n条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/QueryDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "deptcode": "D001",
+  "deptname": "HR",
+  "status": 0, 
+  "page": 1,
+  "pageSize": 10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "success",
+  "data": [
+    {
+      "deptid": 1,
+      "deptcode": "D001",
+      "deptname": "HR Department",
+      "deptlocation": "New York",
+      "status": 0
+    },
+    {
+      "deptid": 2,
+      "deptcode": "D002",
+      "deptname": "Finance Department",
+      "deptlocation": "San Francisco",
+      "status": 0
+    }
+  ],
+  "pagination": {
+    "page": 1,
+    "pageSize": 10,
+    "total": 100
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateCompany接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/CreateCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "compcode": "C001",
+  "compname": "Tech Corp",
+  "compadd": "Silicon Valley",
+  "uscicode": "123456789"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscicode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一社会信用编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "company created successfully"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditCompany接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/EditCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "compcode": new_compcode,
+  "compname": "Tech Corp Inc.",
+  "compadd": "San Francisco",
+  "uscicode": "987654321"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,9 +1381,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
@@ -905,6 +1388,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,38 +1730,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41266F66-F6F5-4B2C-8CEA-CA9E2D0EB8DD}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1280,34 +1769,37 @@
         <v>137</v>
       </c>
       <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>132</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>130</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>129</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1315,23 +1807,23 @@
         <v>92</v>
       </c>
       <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1833,11 @@
       <c r="K4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1350,34 +1845,37 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>122</v>
       </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
       <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1385,34 +1883,37 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>119</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1420,23 +1921,23 @@
         <v>92</v>
       </c>
       <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>116</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -1446,8 +1947,11 @@
       <c r="K7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1455,34 +1959,37 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>113</v>
       </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
       <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>109</v>
       </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1490,34 +1997,37 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
       <c r="K9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1525,23 +2035,23 @@
         <v>92</v>
       </c>
       <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>99</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +2061,11 @@
       <c r="K10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1560,34 +2073,37 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>104</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
       <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1595,34 +2111,37 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>100</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>99</v>
       </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1630,23 +2149,23 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +2175,11 @@
       <c r="K13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1665,34 +2187,37 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
       <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1700,34 +2225,37 @@
         <v>92</v>
       </c>
       <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>88</v>
       </c>
-      <c r="J15" t="s">
-        <v>0</v>
-      </c>
       <c r="K15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1735,23 +2263,23 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>74</v>
       </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -1761,8 +2289,11 @@
       <c r="K16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1770,34 +2301,37 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
       <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1805,20 +2339,20 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
       <c r="H18" t="s">
         <v>0</v>
       </c>
@@ -1826,13 +2360,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>78</v>
       </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1840,34 +2377,37 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
       <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1875,34 +2415,37 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
       <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J20" t="s">
-        <v>0</v>
-      </c>
       <c r="K20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1910,34 +2453,37 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>68</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
       <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
       <c r="K21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1945,23 +2491,23 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
       <c r="I22" t="s">
         <v>0</v>
       </c>
@@ -1971,8 +2517,11 @@
       <c r="K22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1980,20 +2529,20 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
       <c r="H23" t="s">
         <v>0</v>
       </c>
@@ -2001,13 +2550,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>59</v>
       </c>
-      <c r="K23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2015,34 +2567,37 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
       <c r="H24" t="s">
         <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>54</v>
       </c>
-      <c r="J24" t="s">
-        <v>0</v>
-      </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2050,19 +2605,37 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2070,19 +2643,37 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2090,19 +2681,37 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2110,19 +2719,37 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>43</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2130,19 +2757,37 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>40</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2150,19 +2795,37 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2170,19 +2833,37 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2190,19 +2871,37 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2210,19 +2909,34 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2230,19 +2944,37 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2250,19 +2982,37 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
         <v>22</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2270,19 +3020,37 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2290,19 +3058,37 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2310,34 +3096,37 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>0</v>
-      </c>
       <c r="H38" t="s">
         <v>0</v>
       </c>
       <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>10</v>
       </c>
-      <c r="J38" t="s">
-        <v>0</v>
-      </c>
       <c r="K38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2345,20 +3134,20 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
-        <v>0</v>
-      </c>
       <c r="H39" t="s">
         <v>0</v>
       </c>
@@ -2371,8 +3160,11 @@
       <c r="K39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2380,20 +3172,20 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
       <c r="H40" t="s">
         <v>0</v>
       </c>
@@ -2406,10 +3198,564 @@
       <c r="K40" t="s">
         <v>0</v>
       </c>
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}"/>
+  <autoFilter ref="A3:L3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0B824D-EAF2-4DD1-B85A-951769848081}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CFBC9706-5CA3-4453-8B4D-381EBF4D972C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BB8E77-B1FA-4B8F-B3BE-A50D6ED36FD7}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C2C5A9FF-9298-41D1-B06D-7E43EB579979}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E612F3E4-ACDE-4039-9CCF-5600E5CC29FD}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{93A574B5-D058-4A9D-972F-947EA1148CB9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2418,31 +3764,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C2B17-3406-4E95-A90B-4A809C954FE5}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2450,75 +3796,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -2526,7 +3872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
@@ -2534,11 +3880,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2560,30 +3906,30 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2591,35 +3937,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -2627,7 +3973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -2635,7 +3981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>165</v>
       </c>
@@ -2643,7 +3989,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>163</v>
       </c>
@@ -2651,33 +3997,33 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -2685,7 +4031,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -2693,7 +4039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -2718,27 +4064,27 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2746,33 +4092,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -2780,45 +4126,45 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -2826,7 +4172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -2834,7 +4180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2849,4 +4195,892 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C594ADEF-3AEC-4D3D-B94E-65594F5F71FB}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E2AA6D8F-629F-46E8-80A4-33D911721E83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE7C4E8-6C0C-4D2C-AD84-2E77EE05E519}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{6CBE2F03-B30B-4E08-9FB1-6B44D24D7177}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8E7C78-5CC9-410D-A340-ABF68D4AB599}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{66CEE467-E203-4896-A2AC-D64F194DC71F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A2D01-FDAD-40DC-A6CF-39DF0520AFA8}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3A018AF9-18F8-4004-A7CE-E1A71A054678}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37480010-5CAB-41A5-B752-2C26E7A69E2B}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{99D4549F-3848-4808-B559-EA0D16FD6B51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0798D-E857-488A-BB5D-5455A9C73539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB9163-DC87-6149-A307-41AE2DBE6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" firstSheet="1" activeTab="11" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="781" activeTab="4" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
     <sheet name="getVerifyCode" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
-    <sheet name="CreateUaer" sheetId="6" r:id="rId5"/>
-    <sheet name="EditUser" sheetId="7" r:id="rId6"/>
-    <sheet name="QueryUser" sheetId="8" r:id="rId7"/>
-    <sheet name="CreateDepartment" sheetId="9" r:id="rId8"/>
-    <sheet name="EditDepartment" sheetId="10" r:id="rId9"/>
-    <sheet name="QueryDepartment" sheetId="11" r:id="rId10"/>
-    <sheet name="CreateCompany" sheetId="12" r:id="rId11"/>
-    <sheet name="EditCompany" sheetId="13" r:id="rId12"/>
+    <sheet name="UpdatePasswd" sheetId="15" r:id="rId5"/>
+    <sheet name="CreateUaer" sheetId="6" r:id="rId6"/>
+    <sheet name="EditUser" sheetId="7" r:id="rId7"/>
+    <sheet name="QueryUser" sheetId="8" r:id="rId8"/>
+    <sheet name="CreateDepartment" sheetId="9" r:id="rId9"/>
+    <sheet name="EditDepartment" sheetId="10" r:id="rId10"/>
+    <sheet name="QueryDepartment" sheetId="11" r:id="rId11"/>
+    <sheet name="CreateCompany" sheetId="12" r:id="rId12"/>
+    <sheet name="EditCompany" sheetId="13" r:id="rId13"/>
+    <sheet name="QueryCompany" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">接口设计!$A$3:$L$3</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="282">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,12 +1252,90 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>QueryCompany接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/QueryCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": 2000,
+  "msg": "department updated successfully",
+  "data": [
+    {
+      "compcode": new_compcode,
+      "compname": "Tech Corp Inc.",
+      "compadd": "San Francisco",
+      "uscicode": "987654321"
+    },
+    {
+      "deptid": 2,
+      "deptcode": "D002",
+      "deptname": "Finance Department",
+      "deptlocation": "San Francisco",
+      "status": 0
+    }
+  ],
+  "pagination": {
+    "page": 1,
+    "pageSize": 10,
+    "total": 100
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatePasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatePasswd接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/MST/UpdatePasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "nowpasswd": "abcdefg",
+  "newpasswd": "cdefghi"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nowpasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,7 +1441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,9 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1730,38 +1807,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41266F66-F6F5-4B2C-8CEA-CA9E2D0EB8DD}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1799,7 +1876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1837,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1875,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1913,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1951,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1989,7 +2066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2027,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2065,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2103,7 +2180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2141,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2179,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2217,7 +2294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2255,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2293,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2331,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2369,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2407,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2445,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2483,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2521,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2559,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2597,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2635,7 +2712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2673,7 +2750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2711,7 +2788,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2749,7 +2826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2787,7 +2864,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2825,7 +2902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2863,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2901,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2936,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2974,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3012,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3050,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3088,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3126,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3164,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3199,6 +3276,44 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3210,6 +3325,167 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37480010-5CAB-41A5-B752-2C26E7A69E2B}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" thickTop="1">
+      <c r="A1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="80">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="64">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{99D4549F-3848-4808-B559-EA0D16FD6B51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0B824D-EAF2-4DD1-B85A-951769848081}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -3217,19 +3493,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3237,7 +3513,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3245,7 +3521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3253,19 +3529,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3273,13 +3549,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -3287,7 +3563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -3295,7 +3571,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -3303,27 +3579,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="356.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="395">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3331,13 +3607,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3345,7 +3621,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3353,7 +3629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>237</v>
       </c>
@@ -3361,7 +3637,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>239</v>
       </c>
@@ -3369,7 +3645,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>245</v>
       </c>
@@ -3377,19 +3653,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3406,27 +3682,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BB8E77-B1FA-4B8F-B3BE-A50D6ED36FD7}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3434,7 +3710,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3442,7 +3718,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3450,19 +3726,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3470,13 +3746,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3484,7 +3760,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3492,7 +3768,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3500,7 +3776,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3508,23 +3784,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3532,13 +3808,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3546,7 +3822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3554,31 +3830,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3595,27 +3871,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E612F3E4-ACDE-4039-9CCF-5600E5CC29FD}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3623,7 +3899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3631,7 +3907,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3639,19 +3915,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3659,13 +3935,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3673,7 +3949,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3681,7 +3957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3689,7 +3965,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3697,23 +3973,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3721,13 +3997,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3735,7 +4011,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -3743,7 +4019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3760,6 +4036,171 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32575E1F-855A-274B-9C44-D9571F197875}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" thickTop="1">
+      <c r="A1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="96">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="380">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{6BEA7558-F048-944F-A17F-2B699EDE506A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C2B17-3406-4E95-A90B-4A809C954FE5}">
   <dimension ref="A1:B19"/>
@@ -3768,19 +4209,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -3788,7 +4229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -3796,53 +4237,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="64">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
@@ -3850,7 +4291,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -3858,13 +4299,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -3872,7 +4313,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
@@ -3880,11 +4321,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3909,19 +4350,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -3929,7 +4370,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -3937,13 +4378,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -3951,7 +4392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="80">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
@@ -3959,13 +4400,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3973,7 +4414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -3981,7 +4422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>165</v>
       </c>
@@ -3989,7 +4430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>163</v>
       </c>
@@ -3997,19 +4438,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4017,13 +4458,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4031,7 +4472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4039,7 +4480,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -4064,19 +4505,19 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4084,7 +4525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4092,13 +4533,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -4106,19 +4547,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4126,31 +4567,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4158,13 +4599,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4172,7 +4613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4180,7 +4621,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4198,6 +4639,167 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F288D74-A8F3-254E-98F5-7799F60923AF}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" thickTop="1">
+      <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="64">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="64">
+      <c r="A17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{271D9BFE-069D-3C4C-B90A-AE63F812D5BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C594ADEF-3AEC-4D3D-B94E-65594F5F71FB}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -4205,19 +4807,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4225,7 +4827,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4233,7 +4835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4241,19 +4843,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4261,13 +4863,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4275,7 +4877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -4283,7 +4885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -4291,7 +4893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>195</v>
       </c>
@@ -4299,7 +4901,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -4307,23 +4909,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="64">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
@@ -4331,13 +4933,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -4345,7 +4947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -4353,7 +4955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4370,27 +4972,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE7C4E8-6C0C-4D2C-AD84-2E77EE05E519}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4398,7 +5000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4406,7 +5008,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4414,19 +5016,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4434,13 +5036,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4448,7 +5050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -4456,7 +5058,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -4464,7 +5066,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -4472,7 +5074,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -4480,19 +5082,19 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -4500,13 +5102,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4514,7 +5116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4522,7 +5124,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4539,27 +5141,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8E7C78-5CC9-410D-A340-ABF68D4AB599}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD27"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4567,7 +5169,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4575,7 +5177,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4583,19 +5185,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="160">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4603,13 +5205,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4617,7 +5219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -4625,7 +5227,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -4633,7 +5235,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -4641,7 +5243,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -4649,7 +5251,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>242</v>
       </c>
@@ -4657,7 +5259,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>243</v>
       </c>
@@ -4665,19 +5267,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="409.6">
       <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
@@ -4685,13 +5287,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>160</v>
       </c>
@@ -4699,7 +5301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
@@ -4707,7 +5309,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>237</v>
       </c>
@@ -4715,7 +5317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>239</v>
       </c>
@@ -4723,7 +5325,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>245</v>
       </c>
@@ -4731,22 +5333,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-    </row>
+    <row r="28" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4763,27 +5362,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A2D01-FDAD-40DC-A6CF-39DF0520AFA8}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4791,7 +5390,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4799,7 +5398,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4807,19 +5406,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="80">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4827,13 +5426,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -4841,7 +5440,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -4849,7 +5448,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -4857,27 +5456,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -4885,13 +5484,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4899,7 +5498,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4907,7 +5506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4922,165 +5521,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37480010-5CAB-41A5-B752-2C26E7A69E2B}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{99D4549F-3848-4808-B559-EA0D16FD6B51}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB9163-DC87-6149-A307-41AE2DBE6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB13005-53BD-614C-BF9A-790A4EFDBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="781" activeTab="4" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
@@ -1809,12 +1809,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41266F66-F6F5-4B2C-8CEA-CA9E2D0EB8DD}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2675,25 +2675,25 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H25" t="s">
@@ -2903,25 +2903,25 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
@@ -4642,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F288D74-A8F3-254E-98F5-7799F60923AF}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB13005-53BD-614C-BF9A-790A4EFDBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8C324-E8DD-CF49-A09C-FF0BA3548B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
@@ -1810,11 +1810,11 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E12" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1877,25 +1877,25 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H4" t="s">
@@ -1915,25 +1915,25 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H5" t="s">
@@ -1953,25 +1953,25 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H6" t="s">
@@ -2105,25 +2105,25 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H10" t="s">
@@ -2143,25 +2143,25 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
@@ -2181,25 +2181,25 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H12" t="s">
@@ -2713,25 +2713,25 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H26" t="s">
@@ -3166,22 +3166,22 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3204,22 +3204,22 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3242,22 +3242,22 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">

--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8C324-E8DD-CF49-A09C-FF0BA3548B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BF62D-8DED-4DAF-8A47-1ECBBB24D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="283">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,12 +1330,16 @@
     <t>新密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1810,35 +1814,35 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G22" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:G26"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2750,26 +2754,26 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H27" t="s">
@@ -2788,26 +2792,26 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H28" t="s">
@@ -2826,26 +2830,26 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H29" t="s">
@@ -2864,26 +2868,26 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H30" t="s">
@@ -2902,7 +2906,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2940,26 +2944,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H32" t="s">
@@ -2978,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3006,6 +3010,9 @@
       <c r="I33" t="s">
         <v>183</v>
       </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
@@ -3013,26 +3020,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
@@ -3051,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3241,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3332,19 +3339,19 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3352,7 +3359,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3360,7 +3367,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3368,19 +3375,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="80">
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3388,13 +3395,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -3402,7 +3409,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -3418,27 +3425,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="64">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3446,13 +3453,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3493,19 +3500,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3521,7 +3528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3529,19 +3536,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="112">
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3549,13 +3556,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -3571,7 +3578,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -3579,27 +3586,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="395">
+    <row r="16" spans="1:2" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3607,13 +3614,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3629,7 +3636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>237</v>
       </c>
@@ -3637,7 +3644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>239</v>
       </c>
@@ -3645,7 +3652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>245</v>
       </c>
@@ -3653,19 +3660,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="16" thickTop="1"/>
+    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3690,19 +3697,19 @@
       <selection activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3710,7 +3717,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3726,19 +3733,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="96">
+    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3746,13 +3753,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3768,7 +3775,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3784,23 +3791,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="64">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3808,13 +3815,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3822,7 +3829,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3830,31 +3837,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="16" thickTop="1"/>
+    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3879,19 +3886,19 @@
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3907,7 +3914,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3915,19 +3922,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="96">
+    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3935,13 +3942,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3957,7 +3964,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3965,7 +3972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3973,23 +3980,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="64">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3997,13 +4004,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4011,7 +4018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4044,19 +4051,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4072,7 +4079,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4080,19 +4087,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="96">
+    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4100,13 +4107,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -4114,7 +4121,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -4130,7 +4137,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -4138,23 +4145,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="380">
+    <row r="16" spans="1:2" ht="342" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -4162,13 +4169,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4184,7 +4191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4209,19 +4216,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4237,53 +4244,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" ht="64">
+    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4299,13 +4306,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
@@ -4321,11 +4328,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="16" thickTop="1"/>
+    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4350,19 +4357,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4370,7 +4377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4378,13 +4385,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="48">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -4392,7 +4399,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="80">
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
@@ -4400,13 +4407,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>165</v>
       </c>
@@ -4430,7 +4437,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>163</v>
       </c>
@@ -4438,19 +4445,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="64">
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4458,13 +4465,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4472,7 +4479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" thickBot="1">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4480,7 +4487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" thickTop="1"/>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -4505,19 +4512,19 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4533,13 +4540,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="48">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -4547,19 +4554,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4567,31 +4574,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="64">
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4599,13 +4606,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" thickBot="1">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4621,7 +4628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" thickTop="1"/>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4646,19 +4653,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4674,7 +4681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4682,19 +4689,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="64">
+    <row r="7" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4702,13 +4709,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>278</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>280</v>
       </c>
@@ -4724,35 +4731,35 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="64">
+    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
@@ -4760,13 +4767,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -4774,7 +4781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -4782,7 +4789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" thickTop="1"/>
+    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4807,19 +4814,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4827,7 +4834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4843,19 +4850,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="112">
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4863,13 +4870,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>195</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -4909,23 +4916,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="64">
+    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
@@ -4933,13 +4940,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -4947,7 +4954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" thickTop="1"/>
+    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4980,19 +4987,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5000,7 +5007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5016,19 +5023,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="112">
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5036,13 +5043,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5050,7 +5057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -5074,7 +5081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -5082,19 +5089,19 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="64">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -5102,13 +5109,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -5116,7 +5123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5149,19 +5156,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5169,7 +5176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5177,7 +5184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5185,19 +5192,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="160">
+    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5205,13 +5212,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -5227,7 +5234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -5235,7 +5242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>242</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>243</v>
       </c>
@@ -5267,19 +5274,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="409.6">
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
@@ -5287,13 +5294,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>160</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
@@ -5309,7 +5316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>237</v>
       </c>
@@ -5317,7 +5324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>239</v>
       </c>
@@ -5325,7 +5332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>245</v>
       </c>
@@ -5333,19 +5340,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="16" thickBot="1">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="16" thickTop="1"/>
+    <row r="28" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5370,19 +5377,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5390,7 +5397,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5398,7 +5405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5406,19 +5413,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="80">
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5426,13 +5433,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -5440,7 +5447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -5448,7 +5455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -5456,27 +5463,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="64">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -5484,13 +5491,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -5498,7 +5505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickTop="1"/>
+    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>

--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BF62D-8DED-4DAF-8A47-1ECBBB24D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB53EC-8D30-4764-94A5-18000912563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
@@ -1814,11 +1814,11 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/接口设计.xlsx
+++ b/doc/接口设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB53EC-8D30-4764-94A5-18000912563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01046944-22D0-934A-A46C-AB1A015A9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{34F617EA-C13F-4F17-A29C-662C6ECCB5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1814,35 +1814,35 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F6" sqref="F6:F7"/>
       <selection pane="topRight" activeCell="F6" sqref="F6:F7"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="A35:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2982,26 +2982,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3058,26 +3058,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H35" t="s">
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3339,19 +3339,19 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3375,19 +3375,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="80">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3395,13 +3395,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -3425,27 +3425,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3453,13 +3453,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3500,19 +3500,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3536,19 +3536,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3556,13 +3556,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -3586,27 +3586,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="356.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="395">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3614,13 +3614,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>237</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>239</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>245</v>
       </c>
@@ -3660,19 +3660,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3697,19 +3697,19 @@
       <selection activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3733,19 +3733,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3753,13 +3753,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3791,23 +3791,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -3815,13 +3815,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -3837,31 +3837,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3886,19 +3886,19 @@
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3922,19 +3922,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -3942,13 +3942,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -3980,23 +3980,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -4004,13 +4004,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4051,19 +4051,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4087,19 +4087,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4107,13 +4107,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -4145,23 +4145,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="342" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="380">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -4169,13 +4169,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4216,19 +4216,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4244,53 +4244,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="64">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4306,13 +4306,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
@@ -4328,11 +4328,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4357,19 +4357,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4385,13 +4385,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="80">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
@@ -4407,13 +4407,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>165</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>163</v>
       </c>
@@ -4445,19 +4445,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4465,13 +4465,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -4512,19 +4512,19 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -4540,13 +4540,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -4554,19 +4554,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4574,31 +4574,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -4606,13 +4606,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>158</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4653,19 +4653,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4689,19 +4689,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="64">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4709,13 +4709,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>278</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>280</v>
       </c>
@@ -4731,35 +4731,35 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="64">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
@@ -4767,13 +4767,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4814,19 +4814,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -4850,19 +4850,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -4870,13 +4870,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>195</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -4916,23 +4916,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="64">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
@@ -4940,13 +4940,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4987,19 +4987,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5023,19 +5023,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5043,13 +5043,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -5089,19 +5089,19 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -5109,13 +5109,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5156,19 +5156,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5192,19 +5192,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="160">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5212,13 +5212,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>191</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>195</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>242</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>243</v>
       </c>
@@ -5274,19 +5274,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="409.6">
       <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
@@ -5294,13 +5294,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>160</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>237</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>239</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>245</v>
       </c>
@@ -5340,19 +5340,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5377,19 +5377,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -5413,19 +5413,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="80">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -5433,13 +5433,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>225</v>
       </c>
@@ -5463,27 +5463,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -5491,13 +5491,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
